--- a/documentation/geplateraufwand.xlsx
+++ b/documentation/geplateraufwand.xlsx
@@ -24,38 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Datenbank</t>
   </si>
   <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>Kontrollstrukturen</t>
-  </si>
-  <si>
     <t>Login System</t>
   </si>
   <si>
-    <t>Berechtigungsüberprüfung</t>
-  </si>
-  <si>
-    <t>Registrieren</t>
-  </si>
-  <si>
-    <t>Einlogen</t>
-  </si>
-  <si>
     <t>Noteneinsicht</t>
   </si>
   <si>
-    <t>Noten Eintragen</t>
-  </si>
-  <si>
-    <t>Kurs erstellen</t>
-  </si>
-  <si>
     <t>Kursübersicht</t>
   </si>
   <si>
@@ -83,25 +62,10 @@
     <t>Design der Application</t>
   </si>
   <si>
-    <t>Bearbeitung der Daten</t>
-  </si>
-  <si>
-    <t>Implementierung</t>
-  </si>
-  <si>
     <t>Dozentenübersicht</t>
   </si>
   <si>
     <t>Stundenübersicht</t>
-  </si>
-  <si>
-    <t>Studenten erstellen</t>
-  </si>
-  <si>
-    <t>Dozenten erstellen</t>
-  </si>
-  <si>
-    <t>Module erstellen</t>
   </si>
   <si>
     <t>Administrationsfunktionen</t>
@@ -287,9 +251,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -298,23 +261,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -327,6 +275,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -642,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O29"/>
+  <dimension ref="B1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,553 +619,409 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="2">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2">
+        <f>E3-F3</f>
+        <v>3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="4">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G28" si="0">E4-F4</f>
+        <v>-2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="4">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <f>E5-F5</f>
+        <v>2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="2">
+        <f>E6-F6</f>
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <f>E7-F7</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2">
+        <f>E8-F8</f>
+        <v>-2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <f>E9-F9</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="2">
+        <f>E10-F10</f>
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <f>E11-F11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="4">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2">
+        <f>E12-F12</f>
+        <v>-6</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="4">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2">
+        <f>E13-F13</f>
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="4">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2">
+        <f>E14-F14</f>
+        <v>2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G15" s="2">
+        <f>E15-F15</f>
+        <v>1.5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="4">
         <v>30</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="F16" s="2">
         <v>18</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="3">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3">
-        <f>E3-F3</f>
-        <v>15</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="G16" s="2">
+        <f>E16-F16</f>
+        <v>12</v>
+      </c>
+      <c r="H16" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="5">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3">
-        <f t="shared" ref="G4:G28" si="0">E4-F4</f>
-        <v>8</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="6">
-        <v>3</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="22">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="6">
-        <v>2</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="22">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="6">
-        <v>3</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="22">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="5">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="6">
-        <v>2</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="22">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="6">
-        <v>2</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="22">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="5">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="5">
-        <v>2</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="5">
-        <v>2</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="5">
-        <v>2</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="5">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
+    <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14">
+        <f>E3*3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13*3+E14+E15+E16*3</f>
+        <v>197</v>
+      </c>
+      <c r="F17" s="14">
+        <f>F3*3+F4+F5+F6+F7+F9+F8+F10+F11+F12*3+F13+F14+F15+F16*3</f>
+        <v>180.5</v>
+      </c>
+      <c r="G17" s="14">
+        <f>E17-F17</f>
+        <v>16.5</v>
+      </c>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="5">
-        <v>14</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="H18" s="4">
-        <v>3</v>
-      </c>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="18"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="12"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="6">
-        <v>2</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="22">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="16"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="10"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="10"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="6">
-        <v>2</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="22">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="16"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="10"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="10"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="6">
-        <v>2</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="22">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="16"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="10"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="6">
-        <v>2</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="22">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="6">
-        <v>2</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="22">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="6">
-        <v>4</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="22">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="5">
-        <v>5</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="5">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="5">
-        <v>4</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="5">
-        <v>30</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="H28" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20">
-        <f>E3+E4+E8+E12+E13+E14+E15+E16+E17+E18+E25+E26+E27+E28</f>
-        <v>97</v>
-      </c>
-      <c r="F29" s="20">
-        <f>F3+F4+F8+F12+F13+F15+F14+F16+F17+F18+F25+F26+F27+F28</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="20">
-        <f>E29-F29</f>
-        <v>97</v>
-      </c>
-      <c r="H29" s="21"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B21:D21"/>
+  <mergeCells count="15">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
